--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -971,55 +971,55 @@
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18" t="b">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1027,55 +1027,55 @@
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18" t="b">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1083,55 +1083,55 @@
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18" t="b">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1139,55 +1139,55 @@
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18" t="b">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1195,55 +1195,55 @@
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1251,55 +1251,55 @@
       <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="b">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1307,55 +1307,55 @@
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Tile</t>
   </si>
   <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>CanClone</t>
-  </si>
-  <si>
     <t>ActorID</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>CamOffestRot</t>
   </si>
   <si>
-    <t>SyncObject</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -128,16 +119,7 @@
     <t>场景背景音乐列表</t>
   </si>
   <si>
-    <t>多人实时副本</t>
-  </si>
-  <si>
-    <t>是否副本</t>
-  </si>
-  <si>
     <t>acctorid</t>
-  </si>
-  <si>
-    <t>是否同步对象</t>
   </si>
   <si>
     <t>1</t>
@@ -248,6 +230,11 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>NORMAL,
+SINGLE_CLONE_SCENE,
+MULTI_CLONE_SCENE, TYPE_GUILD</t>
   </si>
 </sst>
 </file>
@@ -424,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +471,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -847,15 +837,15 @@
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="9" max="12" width="27.3984375" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" customWidth="1"/>
-    <col min="17" max="17" width="15.265625" customWidth="1"/>
+    <col min="9" max="11" width="27.3984375" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" customWidth="1"/>
+    <col min="15" max="15" width="19.3984375" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -887,853 +877,757 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>65</v>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:16" s="2" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>18</v>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="6" spans="1:16" s="2" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1">
-      <c r="A4" s="7" t="s">
+    <row r="7" spans="1:16" s="3" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1">
-      <c r="A5" s="7" t="s">
+    <row r="8" spans="1:16" s="16" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1">
-      <c r="A6" s="7" t="s">
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="54.4" thickBot="1">
+      <c r="A10" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="16" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1">
-      <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A10" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>33</v>
+      <c r="K10" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>66</v>
+      <c r="P10" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="A15" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>500</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>500</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="P16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:Q9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
-  </si>
-  <si>
-    <t>100,114,0</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -235,6 +232,21 @@
     <t>NORMAL,
 SINGLE_CLONE_SCENE,
 MULTI_CLONE_SCENE, TYPE_GUILD</t>
+  </si>
+  <si>
+    <t>89,104,0</t>
+  </si>
+  <si>
+    <t>89,102,0</t>
+  </si>
+  <si>
+    <t>100,115,0</t>
+  </si>
+  <si>
+    <t>95,102,0</t>
+  </si>
+  <si>
+    <t>88,105,0</t>
   </si>
 </sst>
 </file>
@@ -823,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -892,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1">
@@ -1197,7 +1209,7 @@
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -1323,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>30</v>
@@ -1332,7 +1344,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1354,44 +1366,44 @@
       <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>34</v>
+      <c r="G11" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -1400,16 +1412,16 @@
         <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1421,25 +1433,25 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1448,16 +1460,16 @@
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1469,25 +1481,25 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1496,16 +1508,16 @@
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1517,25 +1529,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1544,16 +1556,16 @@
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>500</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1565,25 +1577,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="P15" s="19"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -1592,16 +1604,16 @@
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>500</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1613,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="P16" s="19"/>
     </row>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>88,105,0</t>
+  </si>
+  <si>
+    <t>BossSoundList</t>
   </si>
 </sst>
 </file>
@@ -833,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,15 +852,15 @@
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="9" max="11" width="27.3984375" customWidth="1"/>
-    <col min="12" max="12" width="9.3984375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.3984375" customWidth="1"/>
-    <col min="15" max="15" width="19.3984375" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="27.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -886,28 +889,31 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1">
+    <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -935,8 +941,8 @@
       <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
+      <c r="J2" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>16</v>
@@ -945,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>15</v>
@@ -953,11 +959,14 @@
       <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
+    <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -985,7 +994,7 @@
       <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="18">
         <v>0</v>
       </c>
       <c r="K3" s="8">
@@ -1003,11 +1012,14 @@
       <c r="O3" s="8">
         <v>0</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1">
+    <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1047,7 @@
       <c r="I4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="18">
         <v>0</v>
       </c>
       <c r="K4" s="8">
@@ -1053,11 +1065,14 @@
       <c r="O4" s="8">
         <v>0</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1">
+    <row r="5" spans="1:17" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1100,7 @@
       <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="18">
         <v>0</v>
       </c>
       <c r="K5" s="8">
@@ -1103,11 +1118,14 @@
       <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1">
+    <row r="6" spans="1:17" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1153,7 @@
       <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="18">
         <v>0</v>
       </c>
       <c r="K6" s="8">
@@ -1153,11 +1171,14 @@
       <c r="O6" s="8">
         <v>0</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1">
+    <row r="7" spans="1:17" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1206,7 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="16">
         <v>0</v>
       </c>
       <c r="K7" s="3">
@@ -1203,11 +1224,14 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1">
+    <row r="8" spans="1:17" s="16" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
@@ -1256,8 +1280,11 @@
       <c r="P8" s="16">
         <v>0</v>
       </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1285,7 +1312,7 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="16">
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -1303,11 +1330,14 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="54.4" thickBot="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="54.4" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1332,22 +1362,25 @@
         <v>29</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="L10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
@@ -1375,8 +1408,8 @@
       <c r="I11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1384,18 +1417,21 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">
         <v>38</v>
       </c>
@@ -1423,27 +1459,30 @@
       <c r="I12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="J12" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
@@ -1471,27 +1510,30 @@
       <c r="I13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="J13" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
@@ -1519,27 +1561,30 @@
       <c r="I14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J14">
-        <v>1</v>
+      <c r="J14" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -1567,27 +1612,30 @@
       <c r="I15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="J15" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
@@ -1615,31 +1663,34 @@
       <c r="I16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="J16" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -251,11 +246,14 @@
   <si>
     <t>BossSoundList</t>
   </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/srv_demo.navmesh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -492,7 +490,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -835,28 +833,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="4" max="4" width="21.46484375" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="9" max="12" width="27.3984375" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="12" width="27.375" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="19.375" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1284,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1">
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="27">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="54.4" thickBot="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="54.75" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1429,7 +1427,9 @@
       <c r="P11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,8 +19,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -118,9 +123,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>villageScene</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
@@ -249,11 +251,14 @@
   <si>
     <t>../NFDataCfg/Ini/Navigation/srv_demo.navmesh</t>
   </si>
+  <si>
+    <t>villageScene6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -490,7 +495,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -833,28 +838,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="7.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="12" width="27.375" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" customWidth="1"/>
+    <col min="9" max="12" width="27.3984375" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -887,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>9</v>
@@ -908,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1">
@@ -1231,7 +1236,7 @@
     </row>
     <row r="8" spans="1:17" s="16" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -1282,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" ht="27">
+    <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="54.75" thickBot="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="54.4" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>30</v>
@@ -1375,7 +1380,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1383,10 +1388,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1395,51 +1400,51 @@
         <v>50</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="Q11" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1000</v>
@@ -1448,19 +1453,19 @@
         <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1472,25 +1477,25 @@
         <v>0</v>
       </c>
       <c r="N12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1499,19 +1504,19 @@
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1523,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1550,19 +1555,19 @@
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1574,25 +1579,25 @@
         <v>0</v>
       </c>
       <c r="N14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1601,19 +1606,19 @@
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15">
         <v>500</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1625,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="N15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -1652,19 +1657,19 @@
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>500</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1676,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="Q16" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>villageScene6</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -839,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1384,8 +1387,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="12" t="s">
-        <v>31</v>
+      <c r="A11" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1397,9 +1400,9 @@
         <v>100</v>
       </c>
       <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12" t="s">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="19" t="s">
@@ -1408,7 +1411,7 @@
       <c r="H11">
         <v>500</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="19" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="19" t="s">
@@ -1426,10 +1429,10 @@
       <c r="N11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="19" t="s">
         <v>36</v>
       </c>
       <c r="Q11" s="19" t="s">
@@ -1438,25 +1441,25 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>62</v>
+      <c r="F12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="H12">
         <v>500</v>
@@ -1468,10 +1471,10 @@
         <v>33</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1485,17 +1488,19 @@
       <c r="P12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1504,10 +1509,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -1531,22 +1536,22 @@
         <v>34</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1555,10 +1560,10 @@
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -1582,22 +1587,22 @@
         <v>34</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1606,10 +1611,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>500</v>
@@ -1629,26 +1634,26 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>51</v>
+      <c r="N15" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -1657,10 +1662,10 @@
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>500</v>
@@ -1684,12 +1689,63 @@
         <v>51</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -231,21 +231,6 @@
 MULTI_CLONE_SCENE, TYPE_GUILD</t>
   </si>
   <si>
-    <t>89,104,0</t>
-  </si>
-  <si>
-    <t>89,102,0</t>
-  </si>
-  <si>
-    <t>100,115,0</t>
-  </si>
-  <si>
-    <t>95,102,0</t>
-  </si>
-  <si>
-    <t>88,105,0</t>
-  </si>
-  <si>
     <t>BossSoundList</t>
   </si>
   <si>
@@ -256,6 +241,27 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,2</t>
+  </si>
+  <si>
+    <t>0,0,3</t>
+  </si>
+  <si>
+    <t>0,0,4</t>
+  </si>
+  <si>
+    <t>0,0,5</t>
+  </si>
+  <si>
+    <t>0,0,6</t>
   </si>
 </sst>
 </file>
@@ -845,7 +851,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G11" sqref="G11:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -895,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>9</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1406,7 +1412,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H11">
         <v>500</v>
@@ -1436,7 +1442,7 @@
         <v>36</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1459,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H12">
         <v>500</v>
@@ -1489,7 +1495,7 @@
         <v>36</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1511,8 +1517,8 @@
       <c r="F13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>62</v>
+      <c r="G13" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -1563,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -1613,8 +1619,8 @@
       <c r="F15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>63</v>
+      <c r="G15" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="H15">
         <v>500</v>
@@ -1664,8 +1670,8 @@
       <c r="F16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>64</v>
+      <c r="G16" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="H16">
         <v>500</v>
@@ -1701,10 +1707,10 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -1715,8 +1721,8 @@
       <c r="F17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>65</v>
+      <c r="G17" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="H17">
         <v>500</v>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -243,25 +243,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,2</t>
-  </si>
-  <si>
-    <t>0,0,3</t>
-  </si>
-  <si>
-    <t>0,0,4</t>
-  </si>
-  <si>
-    <t>0,0,5</t>
-  </si>
-  <si>
-    <t>0,0,6</t>
+    <t>55,110,0</t>
   </si>
 </sst>
 </file>
@@ -851,7 +833,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1465,7 +1447,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>500</v>
@@ -1518,7 +1500,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -1569,7 +1551,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -1620,7 +1602,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>500</v>
@@ -1671,7 +1653,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>500</v>
@@ -1722,7 +1704,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>500</v>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -243,7 +243,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>55,110,0</t>
+    <t>30,110,0;40,110,0;55,110,0;65,110,0;75,110,0;85,110,0</t>
+  </si>
+  <si>
+    <t>30,95,0;40,95,0;55,95,0;65,95,0;75,95,0;85,95,0</t>
+  </si>
+  <si>
+    <t>TagPos</t>
   </si>
 </sst>
 </file>
@@ -830,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -844,17 +850,17 @@
     <col min="4" max="4" width="21.46484375" customWidth="1"/>
     <col min="5" max="5" width="17.1328125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="9" max="12" width="27.3984375" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="53.3984375" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
+    <col min="10" max="13" width="27.3984375" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="19.3984375" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -877,37 +883,40 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1">
+    <row r="2" spans="1:18" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -929,17 +938,17 @@
       <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>16</v>
@@ -948,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>15</v>
@@ -956,11 +965,14 @@
       <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="R2" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1">
+    <row r="3" spans="1:18" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -982,16 +994,16 @@
       <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="18">
         <v>0</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
         <v>0</v>
       </c>
       <c r="L3" s="8">
@@ -1009,11 +1021,14 @@
       <c r="P3" s="8">
         <v>0</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1">
+    <row r="4" spans="1:18" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1035,16 +1050,16 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="18">
         <v>0</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
         <v>0</v>
       </c>
       <c r="L4" s="8">
@@ -1062,11 +1077,14 @@
       <c r="P4" s="8">
         <v>0</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1">
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1088,16 +1106,16 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="18">
         <v>0</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
         <v>0</v>
       </c>
       <c r="L5" s="8">
@@ -1115,11 +1133,14 @@
       <c r="P5" s="8">
         <v>0</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1">
+    <row r="6" spans="1:18" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1141,16 +1162,16 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="18">
         <v>0</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
         <v>0</v>
       </c>
       <c r="L6" s="8">
@@ -1168,11 +1189,14 @@
       <c r="P6" s="8">
         <v>0</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1">
+    <row r="7" spans="1:18" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1194,16 +1218,16 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="16">
         <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
         <v>0</v>
       </c>
       <c r="L7" s="3">
@@ -1221,11 +1245,14 @@
       <c r="P7" s="3">
         <v>0</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="16" customFormat="1">
+    <row r="8" spans="1:18" s="16" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -1277,8 +1304,11 @@
       <c r="Q8" s="16">
         <v>0</v>
       </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1">
+    <row r="9" spans="1:18" s="3" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1300,16 +1330,16 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="16">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
         <v>0</v>
       </c>
       <c r="L9" s="3">
@@ -1327,11 +1357,14 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="54.4" thickBot="1">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="54.4" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1350,31 +1383,34 @@
         <v>27</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="19" t="s">
         <v>64</v>
       </c>
@@ -1396,17 +1432,17 @@
       <c r="G11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
         <v>500</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K11">
-        <v>0</v>
+      <c r="K11" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1414,20 +1450,23 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="P11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="Q11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="R11" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1449,38 +1488,41 @@
       <c r="G12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12">
         <v>500</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="R12" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1502,36 +1544,39 @@
       <c r="G13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
         <v>500</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
@@ -1553,36 +1598,39 @@
       <c r="G14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14">
         <v>500</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="K14" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
@@ -1604,36 +1652,39 @@
       <c r="G15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15">
         <v>500</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -1655,36 +1706,39 @@
       <c r="G16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
         <v>500</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="12" t="s">
         <v>54</v>
       </c>
@@ -1706,40 +1760,43 @@
       <c r="G17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17">
         <v>500</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="K17" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:Q9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -250,6 +250,27 @@
   </si>
   <si>
     <t>TagPos</t>
+  </si>
+  <si>
+    <t>ResPath</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/1.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/2.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/3.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/4.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/5.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/6.xml</t>
   </si>
 </sst>
 </file>
@@ -836,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -857,10 +878,10 @@
     <col min="15" max="15" width="14" customWidth="1"/>
     <col min="16" max="16" width="13.3984375" customWidth="1"/>
     <col min="17" max="17" width="19.3984375" customWidth="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -915,8 +936,11 @@
       <c r="R1" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="S1" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -971,8 +995,11 @@
       <c r="R2" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="S2" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
+    <row r="3" spans="1:19" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1027,8 +1054,11 @@
       <c r="R3" s="18">
         <v>0</v>
       </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1">
+    <row r="4" spans="1:19" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1083,8 +1113,11 @@
       <c r="R4" s="18">
         <v>0</v>
       </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1139,8 +1172,11 @@
       <c r="R5" s="18">
         <v>0</v>
       </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1">
+    <row r="6" spans="1:19" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1195,8 +1231,11 @@
       <c r="R6" s="18">
         <v>0</v>
       </c>
+      <c r="S6" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
+    <row r="7" spans="1:19" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -1251,8 +1290,11 @@
       <c r="R7" s="16">
         <v>0</v>
       </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1">
+    <row r="8" spans="1:19" s="16" customFormat="1">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -1307,8 +1349,11 @@
       <c r="R8" s="16">
         <v>0</v>
       </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1">
+    <row r="9" spans="1:19" s="3" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1363,8 +1408,11 @@
       <c r="R9" s="16">
         <v>0</v>
       </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="54.4" thickBot="1">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="54.4" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1409,8 +1457,11 @@
       <c r="R10" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="S10" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="19" t="s">
         <v>64</v>
       </c>
@@ -1465,8 +1516,11 @@
       <c r="R11" s="19" t="s">
         <v>62</v>
       </c>
+      <c r="S11" s="19" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -1521,8 +1575,11 @@
       <c r="R12" s="19" t="s">
         <v>62</v>
       </c>
+      <c r="S12" s="19" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1575,8 +1632,11 @@
         <v>36</v>
       </c>
       <c r="R13" s="19"/>
+      <c r="S13" s="19" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
@@ -1629,8 +1689,11 @@
         <v>44</v>
       </c>
       <c r="R14" s="19"/>
+      <c r="S14" s="19" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="12" t="s">
         <v>45</v>
       </c>
@@ -1683,8 +1746,11 @@
         <v>36</v>
       </c>
       <c r="R15" s="19"/>
+      <c r="S15" s="19" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -1737,8 +1803,11 @@
         <v>53</v>
       </c>
       <c r="R16" s="19"/>
+      <c r="S16" s="19" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="12" t="s">
         <v>54</v>
       </c>
@@ -1791,6 +1860,9 @@
         <v>36</v>
       </c>
       <c r="R17" s="19"/>
+      <c r="S17" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>Id</t>
   </si>
@@ -50,15 +45,24 @@
     <t>RelivePos</t>
   </si>
   <si>
+    <t>TagPos</t>
+  </si>
+  <si>
     <t>Width</t>
   </si>
   <si>
     <t>SoundList</t>
   </si>
   <si>
+    <t>BossSoundList</t>
+  </si>
+  <si>
     <t>Tile</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>ActorID</t>
   </si>
   <si>
@@ -71,7 +75,10 @@
     <t>CamOffestRot</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>NavigationResPath</t>
+  </si>
+  <si>
+    <t>ResPath</t>
   </si>
   <si>
     <t>string</t>
@@ -95,6 +102,9 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Force</t>
+  </si>
+  <si>
     <t>Upload</t>
   </si>
   <si>
@@ -119,13 +129,30 @@
     <t>场景背景音乐列表</t>
   </si>
   <si>
+    <t>NORMAL,
+SINGLE_CLONE_SCENE,
+MULTI_CLONE_SCENE, TYPE_GUILD</t>
+  </si>
+  <si>
     <t>acctorid</t>
   </si>
   <si>
-    <t>1</t>
+    <t>导航数据路径</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>villageScene1</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
+  </si>
+  <si>
+    <t>30,110,0;40,110,0;55,110,0;65,110,0;75,110,0;85,110,0</t>
+  </si>
+  <si>
+    <t>30,95,0;40,95,0;55,95,0;65,95,0;75,95,0;85,95,0</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -157,19 +184,34 @@
     <t>45,180</t>
   </si>
   <si>
+    <t>../NFDataCfg/Ini/Navigation/srv_demo.navmesh</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/1.xml</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0,2,0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>villageScene1</t>
+    <t>villageScene2</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/2.xml</t>
   </si>
   <si>
+    <t>../NFDataCfg/Ini/Navigation/2.xml</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>villageScene2</t>
+    <t>villageScene3</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/3.xml</t>
@@ -181,19 +223,25 @@
     <t>45,90</t>
   </si>
   <si>
+    <t>../NFDataCfg/Ini/Navigation/3.xml</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>villageScene3</t>
+    <t>villageScene4</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/4.xml</t>
   </si>
   <si>
+    <t>../NFDataCfg/Ini/Navigation/4.xml</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>villageScene4</t>
+    <t>villageScene5</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/5.xml</t>
@@ -208,66 +256,16 @@
     <t>45,0</t>
   </si>
   <si>
+    <t>../NFDataCfg/Ini/Navigation/5.xml</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>villageScene5</t>
+    <t>villageScene6</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/6.xml</t>
-  </si>
-  <si>
-    <t>NavigationResPath</t>
-  </si>
-  <si>
-    <t>导航数据路径</t>
-  </si>
-  <si>
-    <t>Force</t>
-  </si>
-  <si>
-    <t>NORMAL,
-SINGLE_CLONE_SCENE,
-MULTI_CLONE_SCENE, TYPE_GUILD</t>
-  </si>
-  <si>
-    <t>BossSoundList</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/srv_demo.navmesh</t>
-  </si>
-  <si>
-    <t>villageScene6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30,110,0;40,110,0;55,110,0;65,110,0;75,110,0;85,110,0</t>
-  </si>
-  <si>
-    <t>30,95,0;40,95,0;55,95,0;65,95,0;75,95,0;85,95,0</t>
-  </si>
-  <si>
-    <t>TagPos</t>
-  </si>
-  <si>
-    <t>ResPath</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/1.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/2.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/3.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/4.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/5.xml</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Navigation/6.xml</t>
@@ -276,8 +274,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -292,12 +296,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +466,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -441,13 +777,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,39 +1068,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -851,37 +1455,37 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="4" max="4" width="21.46484375" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.46666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.6" customWidth="1"/>
+    <col min="3" max="3" width="15.8666666666667" customWidth="1"/>
+    <col min="4" max="4" width="21.4666666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.3984375" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" customWidth="1"/>
-    <col min="10" max="13" width="27.3984375" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" customWidth="1"/>
+    <col min="7" max="8" width="53.4" customWidth="1"/>
+    <col min="9" max="9" width="8.86666666666667" customWidth="1"/>
+    <col min="10" max="13" width="27.4" customWidth="1"/>
+    <col min="14" max="14" width="9.4" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" customWidth="1"/>
-    <col min="17" max="17" width="19.3984375" customWidth="1"/>
-    <col min="18" max="19" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4" customWidth="1"/>
+    <col min="17" max="17" width="19.4" customWidth="1"/>
+    <col min="18" max="19" width="45.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -904,572 +1508,572 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>68</v>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>15</v>
+    <row r="3" s="2" customFormat="1" spans="1:19">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
+    <row r="4" s="2" customFormat="1" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
+    <row r="5" s="2" customFormat="1" spans="1:19">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
+    <row r="6" s="2" customFormat="1" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
+    <row r="7" s="3" customFormat="1" spans="1:19">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
+    <row r="8" s="3" customFormat="1" spans="1:19">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="16" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
+    <row r="9" s="3" customFormat="1" spans="1:19">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="3" customFormat="1">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="54.4" thickBot="1">
+    <row r="10" s="4" customFormat="1" ht="54.75" spans="1:19">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>58</v>
+      <c r="R10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="19" t="s">
-        <v>64</v>
+      <c r="A11" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1477,23 +2081,23 @@
       <c r="E11">
         <v>500000</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>66</v>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I11">
         <v>500</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>33</v>
+      <c r="J11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1505,30 +2109,30 @@
         <v>0</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1537,22 +2141,22 @@
         <v>50</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I12">
         <v>500</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1564,30 +2168,30 @@
         <v>0</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="19" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -1596,22 +2200,22 @@
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I13">
         <v>500</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1623,28 +2227,28 @@
         <v>0</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1653,22 +2257,22 @@
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="I14">
         <v>500</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1680,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -1710,22 +2314,22 @@
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I15">
         <v>500</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1737,28 +2341,28 @@
         <v>0</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -1767,22 +2371,22 @@
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I16">
         <v>500</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1794,28 +2398,28 @@
         <v>0</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="12" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -1824,22 +2428,22 @@
         <v>50</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I17">
         <v>500</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1851,28 +2455,27 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:Q9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:Q9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="17100" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Id</t>
   </si>
@@ -149,10 +149,7 @@
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>30,110,0;40,110,0;55,110,0;65,110,0;75,110,0;85,110,0</t>
-  </si>
-  <si>
-    <t>30,95,0;40,95,0;55,95,0;65,95,0;75,95,0;85,95,0</t>
+    <t>0,2,0;5,12,0;0,12,0;15,15,0</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -193,9 +190,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>0,2,0</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -276,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -297,21 +291,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +327,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -340,8 +349,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,9 +373,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,22 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,31 +421,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,187 +462,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,17 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -861,17 +850,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,15 +874,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,130 +892,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1463,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2088,45 +2082,45 @@
         <v>41</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <v>500</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -2144,54 +2138,54 @@
         <v>40</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12">
         <v>500</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13" t="s">
+      <c r="P12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -2200,22 +2194,22 @@
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13">
         <v>500</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2227,28 +2221,28 @@
         <v>0</v>
       </c>
       <c r="O13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -2257,22 +2251,22 @@
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14">
         <v>500</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2284,28 +2278,28 @@
         <v>0</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -2314,22 +2308,22 @@
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15">
         <v>500</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2341,28 +2335,28 @@
         <v>0</v>
       </c>
       <c r="O15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="R15" s="12"/>
       <c r="S15" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -2371,22 +2365,22 @@
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <v>500</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2398,28 +2392,28 @@
         <v>0</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -2428,22 +2422,22 @@
         <v>50</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17">
         <v>500</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2455,17 +2449,17 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17100" windowHeight="9915"/>
+    <workbookView windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>Id</t>
   </si>
@@ -81,10 +81,19 @@
     <t>ResPath</t>
   </si>
   <si>
+    <t>LeftBot</t>
+  </si>
+  <si>
+    <t>RightTop</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>vector2</t>
   </si>
   <si>
     <t>Public</t>
@@ -147,6 +156,9 @@
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
+  </si>
+  <si>
+    <t>11,2,11;5,12,11;11,12,110;15,15,11</t>
   </si>
   <si>
     <t>0,2,0;5,12,0;0,12,0;15,15,0</t>
@@ -187,6 +199,12 @@
     <t>../NFDataCfg/Ini/Navigation/1.xml</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>150,180</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -270,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -291,7 +309,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,21 +383,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -328,14 +398,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,16 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,51 +458,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -462,187 +480,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,17 +790,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,15 +806,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,6 +826,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -831,6 +851,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,20 +881,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,148 +892,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1455,10 +1473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1479,7 +1497,7 @@
     <col min="18" max="19" width="45.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1537,69 +1555,81 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" s="2" customFormat="1" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+    <row r="3" s="2" customFormat="1" spans="1:21">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -1655,10 +1685,16 @@
       <c r="S3" s="8">
         <v>0</v>
       </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:19">
+    <row r="4" s="2" customFormat="1" spans="1:21">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -1714,10 +1750,16 @@
       <c r="S4" s="8">
         <v>0</v>
       </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:19">
+    <row r="5" s="2" customFormat="1" spans="1:21">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -1773,10 +1815,16 @@
       <c r="S5" s="8">
         <v>0</v>
       </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+    <row r="6" s="2" customFormat="1" spans="1:21">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1832,10 +1880,16 @@
       <c r="S6" s="8">
         <v>0</v>
       </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:19">
+    <row r="7" s="3" customFormat="1" spans="1:21">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1891,10 +1945,16 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:19">
+    <row r="8" s="3" customFormat="1" spans="1:21">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1950,10 +2010,16 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:19">
+    <row r="9" s="3" customFormat="1" spans="1:21">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2009,65 +2075,73 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="54.75" spans="1:19">
+    <row r="10" s="4" customFormat="1" ht="54.75" spans="1:21">
       <c r="A10" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -2076,57 +2150,63 @@
         <v>500000</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>500</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="C12" t="s">
         <v>42</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -2135,22 +2215,22 @@
         <v>50</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <v>500</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2162,30 +2242,36 @@
         <v>0</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>1000</v>
@@ -2194,22 +2280,22 @@
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I13">
         <v>500</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2221,28 +2307,34 @@
         <v>0</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" t="s">
         <v>52</v>
       </c>
+      <c r="U13" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -2251,22 +2343,22 @@
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>500</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2278,28 +2370,34 @@
         <v>0</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="T14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -2308,22 +2406,22 @@
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>500</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2335,28 +2433,34 @@
         <v>0</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R15" s="12"/>
       <c r="S15" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="T15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -2365,22 +2469,22 @@
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I16">
         <v>500</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2392,28 +2496,34 @@
         <v>0</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21">
       <c r="A17" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -2422,22 +2532,22 @@
         <v>50</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I17">
         <v>500</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2449,23 +2559,29 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="T17" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:Q9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T9 U7:U9 B7:Q9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26940" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -202,9 +215,6 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>150,180</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -281,19 +291,16 @@
   </si>
   <si>
     <t>../NFDataCfg/Ini/Navigation/6.xml</t>
+  </si>
+  <si>
+    <t>1000,1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -307,159 +314,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,194 +334,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -789,251 +459,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,58 +512,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1467,37 +848,37 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.46666666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.6" customWidth="1"/>
-    <col min="3" max="3" width="15.8666666666667" customWidth="1"/>
-    <col min="4" max="4" width="21.4666666666667" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="8" width="53.4" customWidth="1"/>
-    <col min="9" max="9" width="8.86666666666667" customWidth="1"/>
-    <col min="10" max="13" width="27.4" customWidth="1"/>
-    <col min="14" max="14" width="9.4" customWidth="1"/>
+    <col min="7" max="8" width="53.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="13" width="27.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="13.4" customWidth="1"/>
-    <col min="17" max="17" width="19.4" customWidth="1"/>
-    <col min="18" max="19" width="45.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" customWidth="1"/>
+    <col min="18" max="19" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1692,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1757,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:21">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1822,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -1887,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:21">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -1952,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:21">
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -2017,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:21">
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -2082,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="54.75" spans="1:21">
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -2133,7 +1514,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +1525,7 @@
         <v>42</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>500000</v>
@@ -2195,12 +1576,12 @@
         <v>52</v>
       </c>
       <c r="U11" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -2209,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -2260,27 +1641,27 @@
         <v>52</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>44</v>
@@ -2317,33 +1698,33 @@
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
         <v>52</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>44</v>
@@ -2373,40 +1754,40 @@
         <v>47</v>
       </c>
       <c r="P14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
         <v>52</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>44</v>
@@ -2443,33 +1824,33 @@
       </c>
       <c r="R15" s="12"/>
       <c r="S15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T15" t="s">
         <v>52</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>44</v>
@@ -2496,43 +1877,43 @@
         <v>0</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s">
         <v>52</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>50</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>44</v>
@@ -2559,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>48</v>
@@ -2569,23 +1950,23 @@
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
         <v>52</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T9 U7:U9 B7:Q9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:U9 B7:Q9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>Id</t>
   </si>
@@ -134,7 +134,7 @@
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>10000,5,11000;10000,5,12000;10000,5,13000;11000,5,11000;11000,5,12000;11000,5,13000</t>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1020</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -169,6 +169,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1021</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>../NFDataCfg/Ini/Scene/2.xml</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1022</t>
+  </si>
+  <si>
     <t>../NFDataCfg/Ini/Navigation/2.xml</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>../NFDataCfg/Ini/Scene/3.xml</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1023</t>
+  </si>
+  <si>
     <t>../NFDataCfg/Ini/Navigation/3.xml</t>
   </si>
   <si>
@@ -202,6 +211,9 @@
     <t>../NFDataCfg/Ini/Scene/4.xml</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1024</t>
+  </si>
+  <si>
     <t>../NFDataCfg/Ini/Navigation/4.xml</t>
   </si>
   <si>
@@ -214,6 +226,9 @@
     <t>../NFDataCfg/Ini/Scene/5.xml</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1025</t>
+  </si>
+  <si>
     <t>UI/ChronoBlade_Caster_wallpaper</t>
   </si>
   <si>
@@ -229,6 +244,9 @@
     <t>../NFDataCfg/Ini/Scene/6.xml</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1026</t>
+  </si>
+  <si>
     <t>../NFDataCfg/Ini/Navigation/6.xml</t>
   </si>
   <si>
@@ -238,49 +256,79 @@
     <t>villageScene1000</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1027</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
     <t>villageScene1001</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1028</t>
+  </si>
+  <si>
     <t>1002</t>
   </si>
   <si>
     <t>villageScene1002</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1029</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
     <t>villageScene1003</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1030</t>
+  </si>
+  <si>
     <t>1004</t>
   </si>
   <si>
     <t>villageScene1004</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1031</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
     <t>villageScene1005</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1032</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
     <t>villageScene1006</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1033</t>
+  </si>
+  <si>
     <t>1007</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1034</t>
+  </si>
+  <si>
     <t>1008</t>
   </si>
   <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1035</t>
+  </si>
+  <si>
     <t>1009</t>
+  </si>
+  <si>
+    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1036</t>
   </si>
 </sst>
 </file>
@@ -288,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -315,6 +363,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,14 +379,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,24 +407,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,16 +469,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,20 +506,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -486,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,17 +864,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,6 +888,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -861,11 +912,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,162 +941,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2008,7 +2056,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>500</v>
@@ -2034,13 +2082,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2049,10 +2097,10 @@
         <v>1000</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -2071,18 +2119,18 @@
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2091,10 +2139,10 @@
         <v>1001</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -2113,18 +2161,18 @@
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2133,10 +2181,10 @@
         <v>1002</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H15">
         <v>500</v>
@@ -2155,18 +2203,18 @@
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2175,10 +2223,10 @@
         <v>1003</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>500</v>
@@ -2193,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2217,10 +2265,10 @@
         <v>1004</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H17">
         <v>500</v>
@@ -2235,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:14">
       <c r="A18" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5">
         <v>1000</v>
@@ -2261,8 +2309,8 @@
       <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>36</v>
+      <c r="G18" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="H18" s="5">
         <v>500</v>
@@ -2288,13 +2336,13 @@
     </row>
     <row r="19" s="5" customFormat="1" spans="1:14">
       <c r="A19" s="15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D19" s="5">
         <v>1000</v>
@@ -2305,8 +2353,8 @@
       <c r="F19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>36</v>
+      <c r="G19" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="H19" s="5">
         <v>500</v>
@@ -2332,13 +2380,13 @@
     </row>
     <row r="20" s="5" customFormat="1" spans="1:14">
       <c r="A20" s="15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5">
         <v>1000</v>
@@ -2347,10 +2395,10 @@
         <v>50</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="H20" s="5">
         <v>500</v>
@@ -2369,18 +2417,18 @@
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:14">
       <c r="A21" s="15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5">
         <v>1000</v>
@@ -2389,10 +2437,10 @@
         <v>50</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="H21" s="5">
         <v>500</v>
@@ -2411,18 +2459,18 @@
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:14">
       <c r="A22" s="15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5">
         <v>1000</v>
@@ -2431,10 +2479,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="H22" s="5">
         <v>500</v>
@@ -2453,18 +2501,18 @@
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:14">
       <c r="A23" s="15" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D23" s="5">
         <v>1000</v>
@@ -2473,10 +2521,10 @@
         <v>50</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H23" s="5">
         <v>500</v>
@@ -2491,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:14">
       <c r="A24" s="15" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D24" s="5">
         <v>1000</v>
@@ -2515,10 +2563,10 @@
         <v>50</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="H24" s="5">
         <v>500</v>
@@ -2533,22 +2581,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:14">
       <c r="A25" s="15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5">
         <v>1000</v>
@@ -2559,8 +2607,8 @@
       <c r="F25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>36</v>
+      <c r="G25" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="H25" s="5">
         <v>500</v>
@@ -2586,13 +2634,13 @@
     </row>
     <row r="26" s="5" customFormat="1" spans="1:14">
       <c r="A26" s="15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5">
         <v>1000</v>
@@ -2603,8 +2651,8 @@
       <c r="F26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>36</v>
+      <c r="G26" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="H26" s="5">
         <v>500</v>
@@ -2630,13 +2678,13 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:14">
       <c r="A27" s="15" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D27" s="5">
         <v>1000</v>
@@ -2645,10 +2693,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="H27" s="5">
         <v>500</v>
@@ -2667,7 +2715,7 @@
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>Id</t>
   </si>
@@ -134,7 +126,7 @@
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1020</t>
+    <t>1,1,1</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -169,9 +161,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1021</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -181,9 +170,6 @@
     <t>../NFDataCfg/Ini/Scene/2.xml</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1022</t>
-  </si>
-  <si>
     <t>../NFDataCfg/Ini/Navigation/2.xml</t>
   </si>
   <si>
@@ -196,9 +182,6 @@
     <t>../NFDataCfg/Ini/Scene/3.xml</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1023</t>
-  </si>
-  <si>
     <t>../NFDataCfg/Ini/Navigation/3.xml</t>
   </si>
   <si>
@@ -211,9 +194,6 @@
     <t>../NFDataCfg/Ini/Scene/4.xml</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1024</t>
-  </si>
-  <si>
     <t>../NFDataCfg/Ini/Navigation/4.xml</t>
   </si>
   <si>
@@ -226,9 +206,6 @@
     <t>../NFDataCfg/Ini/Scene/5.xml</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1025</t>
-  </si>
-  <si>
     <t>UI/ChronoBlade_Caster_wallpaper</t>
   </si>
   <si>
@@ -244,9 +221,6 @@
     <t>../NFDataCfg/Ini/Scene/6.xml</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1026</t>
-  </si>
-  <si>
     <t>../NFDataCfg/Ini/Navigation/6.xml</t>
   </si>
   <si>
@@ -256,79 +230,49 @@
     <t>villageScene1000</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1027</t>
-  </si>
-  <si>
     <t>1001</t>
   </si>
   <si>
     <t>villageScene1001</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1028</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
     <t>villageScene1002</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1029</t>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
     <t>villageScene1003</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1030</t>
-  </si>
-  <si>
     <t>1004</t>
   </si>
   <si>
     <t>villageScene1004</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1031</t>
-  </si>
-  <si>
     <t>1005</t>
   </si>
   <si>
     <t>villageScene1005</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1032</t>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
     <t>villageScene1006</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1033</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1034</t>
-  </si>
-  <si>
     <t>1008</t>
   </si>
   <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1035</t>
-  </si>
-  <si>
     <t>1009</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1036</t>
   </si>
 </sst>
 </file>
@@ -336,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -356,6 +300,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -363,23 +322,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,45 +339,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,19 +359,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,13 +430,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -501,7 +438,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,13 +478,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,169 +634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,35 +784,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,11 +803,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,21 +854,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -941,153 +867,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,10 +1078,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1149,54 +1093,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1534,28 +1478,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G11" sqref="G11:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.6634615384615" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.1634615384615" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="53.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="8.83333333333333" customWidth="1"/>
-    <col min="9" max="10" width="27.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="53.3365384615385" customWidth="1"/>
+    <col min="8" max="8" width="8.83653846153846" customWidth="1"/>
+    <col min="9" max="10" width="27.3365384615385" customWidth="1"/>
+    <col min="11" max="11" width="9.33653846153846" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="14" width="45.3333333333333" customWidth="1"/>
+    <col min="13" max="14" width="45.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:14">
@@ -1822,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:14">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:14">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:14">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:14">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:14">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:14">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="41.25" spans="1:14">
+    <row r="10" s="4" customFormat="1" ht="68.75" spans="1:14">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1992,7 +1936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" ht="17" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +1970,7 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="15" t="s">
         <v>38</v>
       </c>
       <c r="M11" s="13" t="s">
@@ -2036,7 +1980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" ht="17" spans="1:14">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -2056,7 +2000,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>500</v>
@@ -2070,7 +2014,7 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="15" t="s">
         <v>38</v>
       </c>
       <c r="M12" s="13" t="s">
@@ -2080,15 +2024,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" ht="17" spans="1:14">
       <c r="A13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2096,11 +2040,11 @@
       <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>45</v>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -2114,23 +2058,23 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:14">
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2138,11 +2082,11 @@
       <c r="E14">
         <v>1001</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>50</v>
+      <c r="F14" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>500</v>
@@ -2156,23 +2100,23 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="15" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" ht="17" spans="1:14">
       <c r="A15" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2180,11 +2124,11 @@
       <c r="E15">
         <v>1002</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>55</v>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>500</v>
@@ -2198,23 +2142,23 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="15" t="s">
         <v>38</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2222,11 +2166,11 @@
       <c r="E16">
         <v>1003</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>60</v>
+      <c r="F16" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>500</v>
@@ -2241,22 +2185,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2264,11 +2208,11 @@
       <c r="E17">
         <v>1004</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>66</v>
+      <c r="F17" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>500</v>
@@ -2283,22 +2227,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:14">
-      <c r="A18" s="15" t="s">
-        <v>69</v>
+    <row r="18" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A18" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5">
         <v>1000</v>
@@ -2306,16 +2250,16 @@
       <c r="E18" s="5">
         <v>50</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5">
         <v>500</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="5">
@@ -2327,22 +2271,22 @@
       <c r="L18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:14">
-      <c r="A19" s="15" t="s">
-        <v>72</v>
+    <row r="19" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A19" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5">
         <v>1000</v>
@@ -2350,16 +2294,16 @@
       <c r="E19" s="5">
         <v>50</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H19" s="5">
         <v>500</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="5">
@@ -2371,22 +2315,22 @@
       <c r="L19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:14">
-      <c r="A20" s="15" t="s">
-        <v>75</v>
+    <row r="20" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A20" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5">
         <v>1000</v>
@@ -2395,15 +2339,15 @@
         <v>50</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H20" s="5">
         <v>500</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="5">
@@ -2415,20 +2359,20 @@
       <c r="L20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15" t="s">
-        <v>47</v>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:14">
-      <c r="A21" s="15" t="s">
-        <v>78</v>
+    <row r="21" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A21" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D21" s="5">
         <v>1000</v>
@@ -2437,15 +2381,15 @@
         <v>50</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H21" s="5">
         <v>500</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="5">
@@ -2457,20 +2401,20 @@
       <c r="L21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15" t="s">
-        <v>52</v>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:14">
-      <c r="A22" s="15" t="s">
-        <v>81</v>
+    <row r="22" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A22" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D22" s="5">
         <v>1000</v>
@@ -2479,15 +2423,15 @@
         <v>50</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H22" s="5">
         <v>500</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="5">
@@ -2499,20 +2443,20 @@
       <c r="L22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
-        <v>57</v>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:14">
-      <c r="A23" s="15" t="s">
-        <v>84</v>
+      <c r="A23" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D23" s="5">
         <v>1000</v>
@@ -2521,15 +2465,15 @@
         <v>50</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H23" s="5">
         <v>500</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="5">
@@ -2538,23 +2482,23 @@
       <c r="K23" s="5">
         <v>0</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15" t="s">
-        <v>63</v>
+      <c r="L23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:14">
-      <c r="A24" s="15" t="s">
-        <v>87</v>
+      <c r="A24" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D24" s="5">
         <v>1000</v>
@@ -2563,15 +2507,15 @@
         <v>50</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H24" s="5">
         <v>500</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J24" s="5">
@@ -2580,23 +2524,23 @@
       <c r="K24" s="5">
         <v>0</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:14">
-      <c r="A25" s="15" t="s">
-        <v>90</v>
+    <row r="25" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A25" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5">
         <v>1000</v>
@@ -2604,16 +2548,16 @@
       <c r="E25" s="5">
         <v>50</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="H25" s="5">
         <v>500</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="5">
@@ -2625,22 +2569,22 @@
       <c r="L25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:14">
-      <c r="A26" s="15" t="s">
-        <v>92</v>
+    <row r="26" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A26" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5">
         <v>1000</v>
@@ -2648,16 +2592,16 @@
       <c r="E26" s="5">
         <v>50</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="H26" s="5">
         <v>500</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="5">
@@ -2669,22 +2613,22 @@
       <c r="L26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:14">
-      <c r="A27" s="15" t="s">
-        <v>94</v>
+    <row r="27" s="5" customFormat="1" ht="17" spans="1:14">
+      <c r="A27" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5">
         <v>1000</v>
@@ -2693,15 +2637,15 @@
         <v>50</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="H27" s="5">
         <v>500</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>37</v>
       </c>
       <c r="J27" s="5">
@@ -2713,9 +2657,9 @@
       <c r="L27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15" t="s">
-        <v>47</v>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21120"/>
+    <workbookView windowHeight="23360"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>1,1,1</t>
+    <t>10,1,10</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -280,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -300,9 +300,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,37 +322,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,8 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +383,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,17 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,28 +450,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -478,43 +478,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,121 +640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,17 +788,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,15 +829,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -838,31 +838,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -885,153 +870,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,7 +1498,7 @@
     <col min="8" max="8" width="8.83653846153846" customWidth="1"/>
     <col min="9" max="10" width="27.3365384615385" customWidth="1"/>
     <col min="11" max="11" width="9.33653846153846" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="36.1538461538462" customWidth="1"/>
     <col min="13" max="14" width="45.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uowou\Desktop\NFGameDemo\NoahFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54813D-BA2A-45E8-B040-7E72FE4DA7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="23360"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>Id</t>
   </si>
@@ -112,19 +106,30 @@
     <t>场景背景音乐列表</t>
   </si>
   <si>
+    <t xml:space="preserve">	NORMAL_SCENE 			= 0;
+	SINGLE_CLONE_SCENE 		= 1;
+	MULTI_CLONE_SCENE 		= 2;
+	PVP_MODE_SCENE 			= 10;
+	MVM_MODE_SCENE, 		= 11;
+	SURVIVAL_MODE_SCENE, 	= 12;</t>
+  </si>
+  <si>
     <t>actorid</t>
   </si>
   <si>
     <t>导航数据路径</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>villageScene1</t>
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
   </si>
   <si>
-    <t>10,1,10</t>
+    <t>10,10,10</t>
   </si>
   <si>
     <t>Sources/Music/Town</t>
@@ -156,9 +161,6 @@
     <t>../NFDataCfg/Ini/Navigation/1.xml</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -220,21 +222,19 @@
   </si>
   <si>
     <t>../NFDataCfg/Ini/Navigation/6.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	NORMAL_SCENE 			= 0;
-	SINGLE_CLONE_SCENE 		= 1;
-	MULTI_CLONE_SCENE 		= 2;
-	PVP_MODE_SCENE 			= 10;
-	MVM_MODE_SCENE, 		= 11;
-	SURVIVAL_MODE_SCENE, 	= 12;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,8 +248,159 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +419,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -393,9 +730,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -446,17 +1025,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -785,35 +1408,35 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G11" sqref="G11:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="4" width="21.46484375" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.46153846153846" customWidth="1"/>
+    <col min="2" max="2" width="13.6634615384615" customWidth="1"/>
+    <col min="3" max="3" width="18.2692307692308" customWidth="1"/>
+    <col min="4" max="4" width="21.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="17.1346153846154" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="9" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="36.1328125" customWidth="1"/>
-    <col min="13" max="14" width="45.33203125" customWidth="1"/>
+    <col min="7" max="7" width="53.3365384615385" customWidth="1"/>
+    <col min="8" max="8" width="8.86538461538461" customWidth="1"/>
+    <col min="9" max="10" width="27.3365384615385" customWidth="1"/>
+    <col min="11" max="11" width="9.33653846153846" customWidth="1"/>
+    <col min="12" max="12" width="36.1346153846154" customWidth="1"/>
+    <col min="13" max="14" width="45.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -857,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -901,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -945,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -989,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="148.5">
+    <row r="10" s="4" customFormat="1" ht="152.75" spans="1:14">
       <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
@@ -1234,28 +1857,28 @@
         <v>29</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" ht="17" spans="1:14">
       <c r="A11" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1264,16 +1887,16 @@
         <v>1000</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>500</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1282,24 +1905,24 @@
         <v>0</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" ht="17" spans="1:14">
       <c r="A12" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1308,16 +1931,16 @@
         <v>1000</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>500</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1326,22 +1949,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" ht="17" spans="1:14">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1350,16 +1973,16 @@
         <v>1001</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>500</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1368,22 +1991,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" ht="17" spans="1:14">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1392,16 +2015,16 @@
         <v>1002</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -1410,22 +2033,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1434,16 +2057,16 @@
         <v>1003</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>500</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1452,22 +2075,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1476,16 +2099,16 @@
         <v>1004</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>500</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -1494,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:L9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:L9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360"/>
+    <workbookView windowHeight="23640"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,12 @@
     <t>RelivePos</t>
   </si>
   <si>
+    <t>RelivePosEx</t>
+  </si>
+  <si>
+    <t>ResourcePos</t>
+  </si>
+  <si>
     <t>Width</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>SubType</t>
+  </si>
+  <si>
     <t>ActorID</t>
   </si>
   <si>
@@ -106,14 +115,6 @@
     <t>场景背景音乐列表</t>
   </si>
   <si>
-    <t xml:space="preserve">	NORMAL_SCENE 			= 0;
-	SINGLE_CLONE_SCENE 		= 1;
-	MULTI_CLONE_SCENE 		= 2;
-	PVP_MODE_SCENE 			= 10;
-	MVM_MODE_SCENE, 		= 11;
-	SURVIVAL_MODE_SCENE, 	= 12;</t>
-  </si>
-  <si>
     <t>actorid</t>
   </si>
   <si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>../NFDataCfg/Ini/Scene/1.xml</t>
+  </si>
+  <si>
+    <t>0,0.5,0;1,0.5,1;2,0.5,3</t>
   </si>
   <si>
     <t>10,10,10</t>
@@ -155,73 +159,199 @@
     </r>
   </si>
   <si>
+    <t>../NFDataCfg/Ini/Navigation/1.xml</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>villageScene2</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/2.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/2.xml</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>villageScene3</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/3.xml</t>
+  </si>
+  <si>
+    <t>10,5.5,7.74;8.7,5.5,10.65;12.42.5,7.42</t>
+  </si>
+  <si>
+    <t>24.45,5.5,25.86;22.85,5.5,26.7;26.13,5.5,23.43</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/3.xml</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>villageScene4</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/4.xml</t>
+  </si>
+  <si>
+    <t>10,5.5,10.1;11.2,5.5,9;8.9,5.5,8.7</t>
+  </si>
+  <si>
+    <t>23.2,5.5,23.9;22.4,5.5,25;25.2,5.5,25.2</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/4.xml</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>villageScene5</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/5.xml</t>
+  </si>
+  <si>
+    <t>UI/ChronoBlade_Caster_wallpaper</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/5.xml</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>villageScene6</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/6.xml</t>
+  </si>
+  <si>
+    <t>25,5.5,25;25,5.5,26;24,5.5,25</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/6.xml</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>villageScene7</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/7.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/7.xml</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>villageScene8</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Scene/8.xml</t>
+  </si>
+  <si>
+    <t>../NFDataCfg/Ini/Navigation/8.xml</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>villageScene101</t>
+  </si>
+  <si>
+    <t>24,5.5,28;32,5.5,28;28,5.5,24;28,5.5,32</t>
+  </si>
+  <si>
+    <t>28,5.5,7;30,5.5,7;25,5.5,7;28,5.5,10;50,5.5,26;47,5.5,28;46,5.5,26;21,5.5,47;21,5.5,44;18,5.5,43.5;20,5.5,50;40.5,5.5,43.5;5.5,5.5,29;7,5.5,19;5.5,5.5,23;9,5.5,12</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>villageScene102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>villageScene103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>villageScene104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>villageScene105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>villageScene106</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>villageScene201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>villageScene202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>villageScene203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>villageScene204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>villageScene205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>villageScene206</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>villageScene1000</t>
+  </si>
+  <si>
+    <t>23.5,6.5,37;30,6.5,29</t>
+  </si>
+  <si>
     <t>../NFDataCfg/Ini/Navigation/srv_demo.navmesh</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/1.xml</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>villageScene2</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Scene/2.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/2.xml</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>villageScene3</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Scene/3.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/3.xml</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>villageScene4</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Scene/4.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/4.xml</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>villageScene5</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Scene/5.xml</t>
-  </si>
-  <si>
-    <t>UI/ChronoBlade_Caster_wallpaper</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/5.xml</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>villageScene6</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Scene/6.xml</t>
-  </si>
-  <si>
-    <t>../NFDataCfg/Ini/Navigation/6.xml</t>
   </si>
 </sst>
 </file>
@@ -229,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -249,29 +379,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -286,8 +393,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,69 +477,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +499,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -399,6 +513,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -421,19 +551,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,163 +689,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +870,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,6 +890,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,24 +935,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -833,148 +963,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,39 +1172,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1414,29 +1544,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G16"/>
+      <selection activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="7.46153846153846" customWidth="1"/>
-    <col min="2" max="2" width="13.6634615384615" customWidth="1"/>
+    <col min="2" max="2" width="16.0769230769231" customWidth="1"/>
     <col min="3" max="3" width="18.2692307692308" customWidth="1"/>
     <col min="4" max="4" width="21.4615384615385" customWidth="1"/>
     <col min="5" max="5" width="17.1346153846154" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="53.3365384615385" customWidth="1"/>
-    <col min="8" max="8" width="8.86538461538461" customWidth="1"/>
-    <col min="9" max="10" width="27.3365384615385" customWidth="1"/>
-    <col min="11" max="11" width="9.33653846153846" customWidth="1"/>
-    <col min="12" max="12" width="36.1346153846154" customWidth="1"/>
-    <col min="13" max="14" width="45.3365384615385" customWidth="1"/>
+    <col min="7" max="9" width="53.3365384615385" customWidth="1"/>
+    <col min="10" max="10" width="8.86538461538461" customWidth="1"/>
+    <col min="11" max="13" width="27.3365384615385" customWidth="1"/>
+    <col min="14" max="14" width="9.33653846153846" customWidth="1"/>
+    <col min="15" max="15" width="36.1346153846154" customWidth="1"/>
+    <col min="16" max="17" width="45.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1473,60 +1603,78 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:14">
+    <row r="2" s="2" customFormat="1" spans="1:17">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" s="2" customFormat="1" spans="1:17">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8">
         <v>0</v>
@@ -1567,10 +1715,19 @@
       <c r="N3" s="8">
         <v>0</v>
       </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
+    <row r="4" s="2" customFormat="1" spans="1:17">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
@@ -1611,10 +1768,19 @@
       <c r="N4" s="8">
         <v>0</v>
       </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:14">
+    <row r="5" s="2" customFormat="1" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -1655,10 +1821,19 @@
       <c r="N5" s="8">
         <v>0</v>
       </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:14">
+    <row r="6" s="2" customFormat="1" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -1699,10 +1874,19 @@
       <c r="N6" s="8">
         <v>0</v>
       </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:14">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:17">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -1743,10 +1927,19 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:14">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1787,10 +1980,19 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:14">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:17">
       <c r="A9" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1831,303 +2033,1134 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="152.75" spans="1:14">
+    <row r="10" s="4" customFormat="1" ht="17.55" spans="1:17">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="K10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>32</v>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:14">
+    <row r="11" ht="17" spans="1:17">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11">
+        <v>38</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11">
         <v>500</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" ht="17" spans="1:14">
+    <row r="12" ht="17" spans="1:17">
       <c r="A12" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E12">
         <v>1000</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12">
         <v>500</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
-        <v>44</v>
+      <c r="K12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:14">
+    <row r="13" ht="17" spans="1:17">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E13">
         <v>1001</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13">
         <v>500</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
-        <v>48</v>
+      <c r="K13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:14">
+    <row r="14" ht="17" spans="1:17">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E14">
         <v>1002</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
         <v>500</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
-        <v>52</v>
+      <c r="K14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E15">
         <v>1003</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15">
         <v>500</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>57</v>
+      <c r="K15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>99999</v>
       </c>
       <c r="E16">
         <v>1004</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16">
+        <v>56</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16">
         <v>500</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="K16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>99999</v>
+      </c>
+      <c r="E17">
+        <v>1004</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>99999</v>
+      </c>
+      <c r="E18">
+        <v>1004</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:17">
+      <c r="A19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>99999</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J16">
-        <v>12</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
+      <c r="G19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:17">
+      <c r="A20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>99999</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:17">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>99999</v>
+      </c>
+      <c r="E21">
+        <v>1001</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:17">
+      <c r="A22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <v>99999</v>
+      </c>
+      <c r="E22">
+        <v>1002</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22">
+        <v>500</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <v>99999</v>
+      </c>
+      <c r="E23">
+        <v>1003</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>61</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>99999</v>
+      </c>
+      <c r="E24">
+        <v>1004</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:17">
+      <c r="A25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>99999</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:17">
+      <c r="A26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26">
+        <v>99999</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:17">
+      <c r="A27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27">
+        <v>99999</v>
+      </c>
+      <c r="E27">
+        <v>1001</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:17">
+      <c r="A28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28">
+        <v>99999</v>
+      </c>
+      <c r="E28">
+        <v>1002</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>99999</v>
+      </c>
+      <c r="E29">
+        <v>1003</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <v>500</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30">
+        <v>99999</v>
+      </c>
+      <c r="E30">
+        <v>1004</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>500</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:17">
+      <c r="A31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31">
+        <v>500</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:L9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9 I7:I9 M7:M9 B7:G9 J7:L9 N7:O9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
